--- a/SourceCode/2024/Jan2024/SunnyJT/Task13/UipathPractice.xlsx
+++ b/SourceCode/2024/Jan2024/SunnyJT/Task13/UipathPractice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RPA Training\RPA-Developer-in-30-Days\SourceCode\2024\Jan2024\SunnyJT\Task13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE71963A-DCD1-4627-A4D8-8B0E71A14EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C8C98A-61EF-466B-8384-D4B92B252779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{BFFA57BB-56E3-42D9-A56D-811ABEAFBA79}"/>
   </bookViews>
